--- a/merceria.xlsx
+++ b/merceria.xlsx
@@ -496,7 +496,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
@@ -692,7 +691,7 @@
         <v>prov_1759546032622</v>
       </c>
       <c r="B2" t="str">
-        <v>chancho7sa</v>
+        <v>chancho77</v>
       </c>
       <c r="C2" t="str">
         <v>45646545456</v>
@@ -894,7 +893,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
   </ignoredErrors>
@@ -935,7 +933,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
   </ignoredErrors>

--- a/merceria.xlsx
+++ b/merceria.xlsx
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -649,16 +649,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>prod_1759614811047_602</v>
+      </c>
+      <c r="B5" t="str">
+        <v>pepes</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>bolsa</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -755,16 +790,39 @@
         <v/>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>prov_1759614811047</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ANA</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>35345665436</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -849,9 +907,29 @@
         <v>2025-10-04 00:12</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>prov_1759614811047</v>
+      </c>
+      <c r="B5" t="str">
+        <v>prod_1759614811047_602</v>
+      </c>
+      <c r="C5" t="str">
+        <v>bolsa</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2025-10-04 18:53</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
